--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 5. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 5. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:H349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t xml:space="preserve"> ERZENE MAH. 2 SK. NO: 38D BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t>İNCİRALTI                 MAHALLESİ İNCİRALTI CAD. NO:26  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t>VALİ RAHMİ BEY            MAHALLESİ FORBES SK. KARDEŞLER BLOK  NO: 154A  İÇ KAPI NO: A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t>İSMET KAPTAN              MAHALLESİ 1362 SOKAK NO:30/404 BÜYÜK ÇAMLIBEL IS MERKEZI BLOK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. CUMHURİYET BUL. BULVAR IS HANI NO: 109 İÇ KAPI NO: 78 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t xml:space="preserve"> 2. İNÖNÜ MAH. ÖZKARAKAYA CAD. C2 BLOK  NO: 11  İÇ KAPI NO: 18 NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8220 SK. SEVGİ NO: 9 İÇ KAPI NO: 3 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t xml:space="preserve"> ÇINARLI MAHALLESİ 1561 SK.  NO: 48 A/A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6167 SK NO:30  IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t xml:space="preserve"> YUNUS EMRE  7408/6  NO:NO: 40/A BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -712,6 +877,21 @@
           <t xml:space="preserve"> KÜNER MAHALLESİ ÇEVRE YOLU BLV.  NO: 248 /1  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -735,6 +915,21 @@
           <t>CÜNEYT BEY MAHALLESİ DOĞAN SK. NO: 57  İÇ KAPI NO: 3 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -758,6 +953,21 @@
           <t xml:space="preserve"> SAKARYA MAH. 2001 SK. NO: 119/2D ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -781,6 +991,21 @@
           <t>ALTINTAŞ MAHALLESİ ÇEŞME URLA İZMİR ASFALTI CAD. NO:319  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -804,6 +1029,21 @@
           <t>MENDERES                  MAHALLESİ 156 SK. NO:19  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -827,6 +1067,21 @@
           <t>ÇANKAYA MAHALLESİ 150 SK NO: 23A  İÇ KAPI NO: A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -850,6 +1105,21 @@
           <t>ÖRNEKKÖY                  MAHALLESİ 7434 SK. NO:7 İÇ KAPI NO: 13  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -873,6 +1143,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7227/2 SK. NO: 1B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -896,6 +1181,21 @@
           <t>KAZIM DİRİK MAHALLESİ ANKARA CAD. NO:237/2 BAHAR APT. BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -919,6 +1219,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3509 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -942,6 +1257,21 @@
           <t>ÇİNİLİKÖY MAHALLESİ ÇİNİLİKÖY YOLU (KÜME EVLER) NO:26/1 İÇ KAPI NO: 1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -965,6 +1295,21 @@
           <t xml:space="preserve"> ADALET MAH. 1643/18 SK.  NO: 18B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -988,6 +1333,21 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SOK. NO:32/3  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1011,6 +1371,21 @@
           <t xml:space="preserve"> DEREKÖY MAH. 820/2 SK. NO: 40/1 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1034,6 +1409,21 @@
           <t>ATATÜRK MAHALLESİ 7025 SOKAK NO:1  OĞLANANASI MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1057,6 +1447,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6171/1 SK.  NO: 1 /4/0 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1080,6 +1485,21 @@
           <t xml:space="preserve"> 10 SOKAK NO:30/1  İNCİRALTI NARLIDERE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1103,6 +1523,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO:39/3803  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1126,6 +1561,21 @@
           <t xml:space="preserve"> İNCIRALTİ CADDESI NO:30/2  İNCİRALTI BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1149,6 +1599,21 @@
           <t xml:space="preserve"> FUAT EDİP BAKSI MAH. CÜNEYT SİVARİOĞULLARI SK. CUMHURİYET NO: 89  İÇ KAPI NO: 12 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1172,6 +1637,21 @@
           <t>AKIN SİMAV MAHALLESİ MİTHAT PAŞA CAD. NO:353/1 ÖZGÜR BLOK  İÇ KAPI NO: 2  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1195,6 +1675,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2603 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1218,6 +1713,21 @@
           <t>SEKİZ EYLÜL MAHALLESİ 79 SK. NO: 7  İÇ KAPI NO: 6 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1241,6 +1751,21 @@
           <t>MUSALLA MAHALLESİ 1013 SOK.  NO: 6  İÇ KAPI NO: 1 ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1264,6 +1789,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2337 SK.  NO: 1/2 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1287,6 +1827,21 @@
           <t>RÜSTEM MAHALLESİ NO:6 PÜREN SK. URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1310,6 +1865,21 @@
           <t xml:space="preserve"> BADEMLER MAH. 15009 SK. NO: 11 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1333,6 +1903,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 1593/1 SK. İNŞAAT BLOK  NO: 4  İÇ KAPI NO: 77 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1356,6 +1941,21 @@
           <t>ÇINARLI                   MAHALLESİ 1565 SOKAK NO:13/0  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1379,6 +1979,21 @@
           <t xml:space="preserve"> YALI MAH. 6436 SK. NO: 28C KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1402,6 +2017,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1425,6 +2055,21 @@
           <t>LEVENT                    MAHALLESİ 3490 SOKAK NO: 12  İÇ KAPI NO: 3 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1448,6 +2093,21 @@
           <t>ÇINARLI                   MAHALLESİ 1572 SOKAK NO:21/2  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1471,6 +2131,21 @@
           <t>ÇINARLI MAHALLESİ 1561 SK. NO:44  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1494,6 +2169,21 @@
           <t xml:space="preserve"> HACI İSA MAH. YENİ OTOPARK SK. KILINÇ IŞ MERKEZI NO: 2 İÇ KAPI NO: 235 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1517,6 +2207,21 @@
           <t>KAZIMDİRİK MAHALLESİ 197 SOKAK NO:17/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1540,6 +2245,21 @@
           <t xml:space="preserve"> İNCİRALTI MAH. YILDIZ SK. NO: 138 İÇ KAPI NO: 1 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1563,6 +2283,21 @@
           <t>ÇELEBİ MAHALLESİ İSTİKBAL CAD. NO:80  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1586,6 +2321,21 @@
           <t>KIZILAY                   MAHALLESİ 506 SOKAK NO:19  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1609,6 +2359,21 @@
           <t>KONAK                     MAHALLESİ DR. FAİK MUHİTTİN ADAM CAD. NO:18/201 ULUSOY BLOK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1632,6 +2397,21 @@
           <t xml:space="preserve"> EFELER MAH. FORBES SK. KONYAK NO: 71A İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1655,6 +2435,21 @@
           <t xml:space="preserve"> 1573 SOK. NO:7  ÇINARLI / İZMİR</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1678,6 +2473,21 @@
           <t>BİNBAŞI REŞATBEY MAHALLESİ AKÇAY CAD. NO:39/1/Z1  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1701,6 +2511,21 @@
           <t xml:space="preserve"> ADALET MAH. 1586/1 SK. A NO: 1 İÇ KAPI NO: 6 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1724,6 +2549,21 @@
           <t>TINAZTEPE                 MAHALLESİ 565 SOKAK NO:7  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1747,6 +2587,21 @@
           <t xml:space="preserve"> YAKA ÇEŞME URLA İZMİR ASFALTI   NO:259 URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1770,6 +2625,21 @@
           <t>BARBAROS                  MAHALLESİ BURAK REİS CAD. EKİP İŞMERKEZİ BLOK  NO: 4C BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1793,6 +2663,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/1  SOK. NO: 1  İÇ KAPI NO: 102 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1816,6 +2701,21 @@
           <t>BAHAR MAHALLESİ ESKİİZMİR CAD. NO:96/A AKMAN BLOK  İÇ KAPI NO: A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1839,6 +2739,21 @@
           <t xml:space="preserve"> ALTIEVLER MAH. BÜLENT ECEVİT SK. NO: 40 NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1862,6 +2777,21 @@
           <t xml:space="preserve"> ATATÜRK BULV.  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1885,6 +2815,21 @@
           <t>YALI                      MAHALLESİ 6433 SK. NO:8 B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1908,6 +2853,21 @@
           <t>MİMAR SİNAN               MAHALLESİ IŞILAY SAYGIN SOK. NO:6/C ER-GÜN BLOK  İÇ KAPI NO: 6C KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1931,6 +2891,21 @@
           <t xml:space="preserve"> ÜMİT MAHALLESİ 7406/1 SOKAK NO:9 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1954,6 +2929,21 @@
           <t>HIDIRLIK                  MAHALLESİ 11 EYLÜL CAD. BLOK  NO: 34  İÇ KAPI NO: 4 SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1977,6 +2967,21 @@
           <t>ÇINARLI                   MAHALLESİ 1561 SOKAK NO:40  ÇINARLI KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2000,6 +3005,21 @@
           <t>İSMET İNÖNÜ MAHALLESİ 2170 SOKAK NO:15  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2023,6 +3043,21 @@
           <t>IRMAK                     MAHALLESİ HASAN GÜVEN CAD. A BLOK  NO: 33B GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2046,6 +3081,21 @@
           <t xml:space="preserve"> ÇINARLI MAHALLESİ 1565 SK.  NO: 18/_  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2069,6 +3119,21 @@
           <t xml:space="preserve"> ŞİFNE MAH. 6000 SK.  NO: 20 ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2092,6 +3157,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CAD. NO:921 9 EYLÜL APT DAİRE:11 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2115,6 +3195,21 @@
           <t xml:space="preserve"> ÜNİVERSİTE MAH. 4420/1 SK. NO: 4 ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2138,6 +3233,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2161,6 +3271,21 @@
           <t xml:space="preserve"> TALATPAŞA BULVARI NO:36/B  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2184,6 +3309,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. İŞÇİMENLER İŞ MERKEZİ BLOK  NO: 146  İÇ KAPI NO: 29 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2207,6 +3347,21 @@
           <t>BARBAROS MAHALLESİ 396 SK. NO: 2 AB/0  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2230,6 +3385,21 @@
           <t>BİRGİ MAHALLESİ NO:14 KÖYİÇİ MEVKİİ KÜME EVLERİ    URLA URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2253,6 +3423,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. OZAN ABAY CAD. EGEPERLA BLOK  NO: 10  İÇ KAPI NO: 094 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2272,6 +3457,21 @@
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2295,6 +3495,21 @@
           <t xml:space="preserve"> DEVELİ MAH. ÇEVRE YOLU BUL. NO: 195 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2318,6 +3533,21 @@
           <t>GAZİ MAHALLESİ MİLLET CAD. NO: 51B  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2341,6 +3571,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2364,6 +3609,21 @@
           <t xml:space="preserve"> ÇİNİLİKÖY MAH. ÇİNİLİKÖY YOLU KÜME EVLERİ   NO: 26/1  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2383,6 +3643,21 @@
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2406,6 +3681,21 @@
           <t xml:space="preserve"> NO:1/1  TURGUT KÖYÜ SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2429,6 +3719,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. 67 SK. NO: 33 İÇ KAPI NO: 32 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2452,6 +3757,21 @@
           <t xml:space="preserve"> DİCLE MAH. FEVZİ ÇAKMAK CAD.  NO: 166A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2475,6 +3795,21 @@
           <t xml:space="preserve"> YELKİ MAH. 2487 SK. NO: 14 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2498,6 +3833,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL.  NO: 39  İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2521,6 +3871,21 @@
           <t xml:space="preserve"> ADALET MAH. HAYDAR ALİYEV CAD. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2544,6 +3909,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3406 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2567,6 +3947,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2590,6 +3985,21 @@
           <t xml:space="preserve"> ABDULHAMİT YAVUZ CAD. 80/1 SOK. NO:5/B  80/1 SOK. GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2613,6 +4023,21 @@
           <t>İNCİRALTI                 MAHALLESİ MUHTAR SK. NO:37  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2636,6 +4061,21 @@
           <t>CUMHURİYET MAHALLESİ AHMET NECDET SEZER BULVARI NO:10/B1 B BLOK DAİRE:1 GÖRECE MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2659,6 +4099,21 @@
           <t>YELKİ MAHALLESİ İNÖNÜ CAD. NO:81/B  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2682,6 +4137,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2705,6 +4175,21 @@
           <t>ALTINTAŞ MAHALLESİ NO:22 URLA ÇEŞME YOLU ÜZERİ URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2728,6 +4213,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 364/6 SK. NO: 2 İÇ KAPI NO: 12 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2751,6 +4251,21 @@
           <t xml:space="preserve"> ÇAMÖNÜ MAHALLESİ CLAROS BULV. NO:321/C MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2774,6 +4289,21 @@
           <t xml:space="preserve"> SEYHAN MAH. 701 SK.  NO: 41A  İÇ KAPI NO: 1 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2797,6 +4327,21 @@
           <t>KÜÇÜK ÇİĞLİ               MAHALLESİ 8786/11 SK. NO: 10A ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2820,6 +4365,21 @@
           <t>ATATÜRK MAHALLESİ 7037 SOK. NO:49  TAHTALIÇAY MEVKİİ MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2843,6 +4403,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. KUZEY SANAYİ CAD. NO: 34 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2862,6 +4437,21 @@
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2885,6 +4475,21 @@
           <t>DEDEBAŞI MAHALLESİ ALİ ALP BÖKE CAD. EKREM BLOK  NO: 97A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2908,6 +4513,21 @@
           <t xml:space="preserve"> ALSANCAK MAHALLESİ 1440 SK. NO: 1/4 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2931,6 +4551,21 @@
           <t xml:space="preserve"> FIRAT MAHALLESİ 272 SK.  NO: 69 A  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2954,6 +4589,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD.  NO: 41/1  İÇ KAPI NO: 401 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2977,6 +4627,21 @@
           <t xml:space="preserve"> YENİGÜN MAH. UĞUR MUMCU CAD.  NO: 143B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3000,6 +4665,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8281 SK. BALCILAR İŞ MERKEZİ SİTESİ  NO: 19 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3023,6 +4703,21 @@
           <t xml:space="preserve"> ADNAN SÜVARİ MAH. POLAT CAD. KARAHAN BLOK  NO: 196A  İÇ KAPI NO: A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3046,6 +4741,21 @@
           <t>ADALET MAHALLESİ HAYDAR ALİYEV CADDESİ NO: 34  İÇ KAPI NO: 17 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3069,6 +4779,21 @@
           <t xml:space="preserve"> 1202/4 SK. NO:34  DAİRE:202 YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3092,6 +4817,21 @@
           <t>KONAK                     MAHALLESİ MÜCİBUR RAHMAN SOKAK NO:3/711 SALİHAĞA İŞ HANI Apt. KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3115,6 +4855,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3901 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3138,6 +4893,21 @@
           <t>ADALET MAHALLESİ HAYDAR ALİYEV CADDESİ  NO: 34  İÇ KAPI NO: 17 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3161,6 +4931,21 @@
           <t xml:space="preserve"> ÇEŞME URLA İZMİR ASFALTI NO:103 YENİCE MAH.  URLA URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3184,6 +4969,21 @@
           <t>MEVLANA MAHALLESİ 1711/9 SK. NO:1  DAİRE:15 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3207,6 +5007,21 @@
           <t xml:space="preserve"> KUŞÇULAR MAH. 8080 SK. ONURKENT SİTESİ NO: 22 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3230,6 +5045,21 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SK. TEXMEX Apt.  NO: 4/Z BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3249,6 +5079,21 @@
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3272,6 +5117,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL.  NO: 39  İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3295,6 +5155,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1565 SK. NO: 13 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3318,6 +5193,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3341,6 +5231,21 @@
           <t>MARAŞAL FEVZİ ÇAKMAK MAHALLESİ İSMET İNÖNÜ BLV. NO: 8A URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3364,6 +5269,21 @@
           <t>ZAFER MAHALLESİ 2316 SK. NO:24  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3383,6 +5303,21 @@
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3406,6 +5341,21 @@
           <t xml:space="preserve"> YENİMAHALLE MAH. 8762 SK. NO: 9A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3429,6 +5379,21 @@
           <t>RÜSTEM MAHALLESİ AYIŞIĞI SK. NO: 37  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3452,6 +5417,21 @@
           <t>MERSİNLİ                  MAHALLESİ 2823/1 SOKAK NO: 4  İÇ KAPI NO: Z12 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3475,6 +5455,21 @@
           <t xml:space="preserve"> ÖRNEKKÖY MAHALLESİ 7453 SK.  NO: 15/2  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3498,6 +5493,21 @@
           <t xml:space="preserve"> SANCAKLI MAHALLESİ AŞAĞI SANCAKLI CAD.  NO: 12  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3521,6 +5531,21 @@
           <t>16 EYLÜL MAHALLESİ 3001 SOK. NO:29/6 PAZARYERİ ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3544,6 +5569,21 @@
           <t>KÜLTÜR                    MAHALLESİ KIZILAY CADDESİ EFES APT. Apt.  NO: 1 A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3567,6 +5607,21 @@
           <t xml:space="preserve"> YEŞİLLİK CAD. NO:230/222 SELGEÇEN MODEKO İŞ MERKEZİ KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3590,6 +5645,21 @@
           <t>ALTIN TEPE MAHALLESİ NO:31  ARMUTLU 2 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3613,6 +5683,21 @@
           <t xml:space="preserve"> ERZENE MAH. 66 SK. ÇETİNOL NO: 17/1 İÇ KAPI NO: 4 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3632,6 +5717,21 @@
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3655,6 +5755,21 @@
           <t xml:space="preserve"> OĞLANANASI CUMHURİYET MAH. 7011 SK.  NO: 28 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3678,6 +5793,21 @@
           <t xml:space="preserve"> ERZENE MAH. ANKARA CAD. EGE TEKNO PARK NO: 172/67 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3701,6 +5831,21 @@
           <t>MANSUROĞLU MAHALLESİ 288/4 SK. NO: 16  İÇ KAPI NO: 52 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3724,6 +5869,21 @@
           <t>FAHRETTİN PAŞA MAHALLESİ 2234 SOK. NO:20/A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3747,6 +5907,21 @@
           <t>ÇELEBİ MAHALLESİ İSTİKBAL CAD. NO:92  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3770,6 +5945,21 @@
           <t xml:space="preserve"> AKÇAKÖY MAH. 7202 SK. NO: 22 İÇ KAPI NO: 1 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3793,6 +5983,21 @@
           <t xml:space="preserve"> ÇANKAYA MAH. MİTHATPAŞA CAD. KUTUCULAR BLOK  NO: 786  İÇ KAPI NO: 2 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3816,6 +6021,21 @@
           <t>İNÖNÜ                     MAHALLESİ 787 SOKAK NO:18  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3839,6 +6059,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 451 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3862,6 +6097,21 @@
           <t>ALTIEVLER MAHALLESİ YILDIRIM KEMAL CAD. NO:11/A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3885,6 +6135,21 @@
           <t xml:space="preserve"> TORASAN MAH. ÇEŞME URLA İZMİR ASFALTI CAD.  NO: 342 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3908,6 +6173,21 @@
           <t xml:space="preserve"> İÇMELER MAH. ESKİ URLA-İZMİR YOLU CAD. NO: 4/1 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3931,6 +6211,21 @@
           <t>ULAMIŞ MAHALLESİ İZMİR CADDESİ NO:265/1  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3950,6 +6245,21 @@
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3973,6 +6283,21 @@
           <t>HACI İSA MAHALLESİ BÜLENT BARATALI  BLV. NO:40/B URLA CUMHURİYET MEYDANI BLOK   DAİRE:102 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3996,6 +6321,21 @@
           <t xml:space="preserve"> 1440 SOKAK NO:20/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4019,6 +6359,21 @@
           <t>ALTINTAŞ MAHALLESİ ÇEŞME YOLU ÜZERİ NO:61  DÜNDARLI MEVKİİ URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4042,6 +6397,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. FEVZİPAŞA BUL.  NO: 35A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4065,6 +6435,21 @@
           <t xml:space="preserve"> 10 SOKAK NO:27  BAHÇELERARASI BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4088,6 +6473,21 @@
           <t>SEKİZ EYLÜL MAHALLESİ KIROVASI KÜME EVLERİ   NO: 152  İÇ KAPI NO: 1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4111,6 +6511,21 @@
           <t>ERZENE MAHALLESİ İSTANBUL CAD. NO. 12 A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4134,6 +6549,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/11 SK.  NO: 5-7  İÇ KAPI NO: 175 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4157,6 +6587,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4180,6 +6625,21 @@
           <t xml:space="preserve"> ADATEPE MAHALLESİ 3/18 SK. S.S.EGETEKS.KOOP SİT.  NO: 1 J  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4203,6 +6663,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA MAH. 5490/2 SK.  NO: 43A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4226,6 +6701,21 @@
           <t xml:space="preserve"> AKSOY MAH. 1748 SK.  NO: 102  İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4249,6 +6739,21 @@
           <t xml:space="preserve"> ŞEHİT HAKAN ALGIN CAD. NO: 8D KARABURUN       / İZMİR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4272,6 +6777,21 @@
           <t xml:space="preserve"> M.FEVZİ ÇAKMAK MAH. 4111 SK. NO: 2B URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4295,6 +6815,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. ALAÇATI ATATÜRK BUL. NO: 33A ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4318,6 +6853,21 @@
           <t xml:space="preserve"> MALTEPE MAH. MİTHATPAŞA CAD. NO: 269A İÇ KAPI NO: 5 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4341,6 +6891,21 @@
           <t xml:space="preserve"> ÇANKAYA MAH. BAHATTİN TATIŞ SK. NO: 28 İÇ KAPI NO: 10 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4364,6 +6929,21 @@
           <t xml:space="preserve"> 10 SOKAK NO:27 BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4387,6 +6967,21 @@
           <t xml:space="preserve"> 10 SK. NO:27/1  İNCİRALTI BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4410,6 +7005,21 @@
           <t>RAFET PAŞA MAHALLESİ ABDİ İPEKÇİ CD. NO:151/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4433,6 +7043,21 @@
           <t xml:space="preserve"> ONUR MAH. LİMON SK. DURU NO: 1 İÇ KAPI NO: 73 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4456,6 +7081,21 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. NO:429/B  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4479,6 +7119,21 @@
           <t xml:space="preserve"> YALI MAH. 6523 SK. NO: 25 İÇ KAPI NO: 4 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4502,6 +7157,21 @@
           <t>YELKİ MAHALLESİ 2283 SK. NO:6/2  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4525,6 +7195,21 @@
           <t>ÇANKAYA                   MAHALLESİ 141 SOKAK NO:83/6  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4548,6 +7233,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/6 SK NO: 3 H KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4571,6 +7271,21 @@
           <t>MANSUROĞLU                MAHALLESİ 268/1 SOKAK NO:1/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4594,6 +7309,21 @@
           <t xml:space="preserve"> IRMAK MAH. 36/3 SK. NO: 20 İÇ KAPI NO: 12 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4617,6 +7347,21 @@
           <t>GÜNEŞLİ                   MAHALLESİ YEŞİLLİK CADDESİ NO: 34A YAĞHANELER KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4640,6 +7385,21 @@
           <t xml:space="preserve"> SIRA MAH. 2.ZİRAAT SK. NO: 28 İÇ KAPI NO: 2 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4663,6 +7423,21 @@
           <t xml:space="preserve"> 876 SOKAK NO:58/A  KEMERALTI / İZMİR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4686,6 +7461,21 @@
           <t xml:space="preserve"> 1570 SOK. NO:16/B  ÇINARLI / İZMİR</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4709,6 +7499,21 @@
           <t xml:space="preserve"> ÇINARLI MAHALLESİ 1570 SK.  NO: 13 C/13C  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4732,6 +7537,21 @@
           <t xml:space="preserve"> AKSOY MAH. FAZIL BEY CAD. ALDEMİR NO: 87C İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4755,6 +7575,21 @@
           <t xml:space="preserve"> KOŞUKAVAK MAH. ZİYA PAŞA CAD.  NO: 15A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4778,6 +7613,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. 11500 SK.  NO: 24B ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4801,6 +7651,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4824,6 +7689,21 @@
           <t xml:space="preserve"> YALI MAH. 6523 SK. NO: 32CB KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4847,6 +7727,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6106/4 SK. NO: 17B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4870,6 +7765,21 @@
           <t xml:space="preserve"> NARLI MAH. ŞENCAN SK. HİLAL NO: 9A NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4893,6 +7803,21 @@
           <t>GÜNEŞLİ MAHALLESİ 526 SK. NO:7/9  DAİRE:6 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4916,6 +7841,21 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41 MEGAPOL TOWER KAT:10 DAİRE:101 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4939,6 +7879,21 @@
           <t xml:space="preserve"> ERZENE MAH. GENÇLİK CAD.  NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4962,6 +7917,21 @@
           <t xml:space="preserve"> KÖYİÇİ MAH. 8064 SK. KOLÇAK BLOK  NO: 18  İÇ KAPI NO: 5 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4985,6 +7955,21 @@
           <t xml:space="preserve"> PLEVNE BULVARI NO:13/C  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5008,6 +7993,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/1 SOKAK   NO: 1  İÇ KAPI NO: 215  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5031,6 +8031,21 @@
           <t>ADALET MAHALLESİ ANADOLU  CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 101 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5054,6 +8069,21 @@
           <t xml:space="preserve"> TORASAN MAH. ÇEŞME URLA İZMİR ASFALTI CAD.  NO: 362/2 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5077,6 +8107,21 @@
           <t>ÖRNEKKÖY                  MAHALLESİ 7401 SK. NO:105/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5100,6 +8145,21 @@
           <t>NERGİZ MAHALLESİ BERİN TAŞAN SK. DENİZ BLOK  NO: 89B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5123,6 +8183,21 @@
           <t xml:space="preserve"> 10036 SOKAK NO:11 İTOB ORGANİZE SANAYİ BÖLGESİ MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5146,6 +8221,21 @@
           <t xml:space="preserve"> TERSANE MAH. YALI BUL. HALİDE HANIM BLOK  NO: 11A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5169,6 +8259,21 @@
           <t>BAHARİYE MAHALLESİ ŞEHİT İBRAHİM ER SK. UYGAR BLOK  NO: 34A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5192,6 +8297,21 @@
           <t xml:space="preserve"> 1561 SOKAK NO:68  ÇINARLI KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5215,6 +8335,21 @@
           <t>EVKA-2 MAHALLESİ 6851 SK. NO:57  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5238,6 +8373,21 @@
           <t xml:space="preserve"> ERGENE  552  NO:2/C BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5261,6 +8411,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESİ NO:921/12  GÖZTEPE / İZMİR</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5284,6 +8449,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. KUMUL SK. NO: 6 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5307,6 +8487,21 @@
           <t xml:space="preserve"> GÜRPINAR MAHALLESİ 7227/2 SK.  NO: 1 C  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5330,6 +8525,21 @@
           <t>İNKİLAP MAHALLESİ 537 SK. NO: 8-10  İÇ KAPI NO: 6 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5353,6 +8563,21 @@
           <t xml:space="preserve"> DEDEBAŞI MAH. 6011/3 SK.  NO: 11  İÇ KAPI NO: 9 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5376,6 +8601,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CAD. NO:1073/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5399,6 +8639,21 @@
           <t xml:space="preserve"> ATATÜRK MAHALLESİ ÇEŞME URLA İZMİR ASFALTI NO:150  / </t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5422,6 +8677,21 @@
           <t xml:space="preserve"> NAİPLİ MAH. İLKE SK. NO: 1 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5445,6 +8715,21 @@
           <t xml:space="preserve"> 1394 SOKAK NO:14/A  ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5468,6 +8753,21 @@
           <t xml:space="preserve"> GÖLCÜKLER MAH. 798 SK. NO: 40 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5491,6 +8791,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. OZAN ABAY CAD. EGEPERLA NO: 10 İÇ KAPI NO: 094 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5514,6 +8829,21 @@
           <t xml:space="preserve"> FAHRETTİN ALTAY MAH. MİTHATPAŞA CAD. ECE NO: 1175D KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5537,6 +8867,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5560,6 +8905,21 @@
           <t xml:space="preserve"> GAZ DERE MEVKİİ KUŞÇULAR KÖYÜ URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5583,6 +8943,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5606,6 +8981,21 @@
           <t xml:space="preserve"> OĞLANANASI ATATÜRK MAH. MENDERES CAD. NO: 80 İÇ KAPI NO: 1 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5629,6 +9019,21 @@
           <t xml:space="preserve"> DONANMACI MAH. 1728 SK. NO: 20A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5652,6 +9057,21 @@
           <t xml:space="preserve"> DONANMACI MAH. 1728 SK. AYHAN MURAT BLOK  NO: 17A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5675,6 +9095,21 @@
           <t xml:space="preserve"> DONANMACI MAH. 1728 SK. CÜNEYT BLOK  NO: 15A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5698,6 +9133,21 @@
           <t>ÇINARLI                   MAHALLESİ 1583/1 SOKAK ROD-KAR Apt.  NO: 2/209 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5721,6 +9171,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CAD. NO:25  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5744,6 +9209,21 @@
           <t xml:space="preserve"> 1570 SOKAK NO:13  ÇINARLI / İZMİR</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5767,6 +9247,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1567 SK.  NO: 2 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5790,6 +9285,21 @@
           <t xml:space="preserve"> ÇANKAYA MAHALLESİ 133 SOKAK NO:12  KÜÇÜKYALI KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5813,6 +9323,21 @@
           <t>GÖLCÜKLER MAHALLESİ 798 SK NO:20  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5836,6 +9361,21 @@
           <t>ADALET MAHALLESİ 1643/18 SOKAK NO: 18B BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5859,6 +9399,21 @@
           <t>TURABİYE                  MAHALLESİ GAZİ CAD. NO: 31  İÇ KAPI NO: 2 SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5882,6 +9437,21 @@
           <t xml:space="preserve"> SAHİLEVLERİ MAHALLESİ MUSTAFA KEMAL SAHİL BLV.  NO: 360/_  NARLIDERE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5905,6 +9475,21 @@
           <t>MUSALLA MAHALLESİ 1053 SOK. NO:8  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5928,6 +9513,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 12/2 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5951,6 +9551,21 @@
           <t>OĞLANANASI CUMHURİYET MAHALLESİ 7006 SOKAK NO: 18  İÇ KAPI NO: 1 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5974,6 +9589,21 @@
           <t xml:space="preserve"> ÇAMLIÇAY   MAREŞAL FEVZİ ÇAKMAK NO:7/1 URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5997,6 +9627,21 @@
           <t xml:space="preserve"> 1145/1 SOKAK NO:55/D YENİŞEHİR KATLI OTOPARK İŞ MERKEZİ YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6020,6 +9665,21 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 5 CAD. USLU MAKINA BLOK  NO: 7  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6043,6 +9703,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/5 SK. NO: 7  İÇ KAPI NO: Z01 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6066,6 +9741,21 @@
           <t xml:space="preserve"> HALKAPINAR MAHALLESİ 1202/2 SK.  NO: 4 K/_  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6089,6 +9779,21 @@
           <t xml:space="preserve"> ÇATALKAYA MAH. ARAS SK. MERİH NO: 12A NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6112,6 +9817,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8010 SK. NO: 20C ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6135,6 +9855,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. ZUHAL YORGANCIOĞLU SK. ÇİÇEK NO: 8B KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6158,6 +9893,21 @@
           <t>BARBAROS MAHALLESİ ÇEVRE YOLU BUL. NO:123  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6181,6 +9931,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 21/2 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6204,6 +9969,21 @@
           <t>VALİ RAHMİ BEY            MAHALLESİ MENDERES CAD. NO:139/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6227,6 +10007,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6106/18 SK. NO: 12A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6250,6 +10045,21 @@
           <t>FAHRETTİN PAŞA MAHALLESİ 2203 SOKAK  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6273,6 +10083,21 @@
           <t xml:space="preserve"> GÖZTEPE MAH. MİTHATPAŞA CAD. İKBAL NO: 879 İÇ KAPI NO: 12 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6296,6 +10121,21 @@
           <t xml:space="preserve"> ARMUTLU 85.YIL CUMHURİYET MAH. SANAYİ CAD.  NO: 100  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6319,6 +10159,21 @@
           <t>NARLI                     MAHALLESİ BEKAROĞLU SK. PALMİYE BLOK  NO: 2  İÇ KAPI NO: 3 NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6342,6 +10197,21 @@
           <t xml:space="preserve"> BEYAZEVLER MAH. 546 SK. NO: 41/1 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6365,6 +10235,21 @@
           <t xml:space="preserve"> ATAKENT MAH. CAHER DUDAYEV BUL. NO: 151B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6388,6 +10273,21 @@
           <t>İMBATLI                   MAHALLESİ GİRNE BLV. MUSTAFA KASMAN BLOK  NO: 219A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6411,6 +10311,21 @@
           <t>YENİKENT MAHALLESİ SAMANYOLU SK. NO: 6  İÇ KAPI NO: 31 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6434,6 +10349,21 @@
           <t>KAHRAMANDERE MAHALLESİ 821/1 SK. NO: 9  İÇ KAPI NO: 1  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6457,6 +10387,21 @@
           <t xml:space="preserve"> OĞLANANASI ATATÜRK MAH. 7076 SK. TUFAN GELMEZ NO: 26/3 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6480,6 +10425,21 @@
           <t xml:space="preserve"> 9165/4 SK. NO:22 DOĞANAY MAH. BORSAÇ BLOK KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6499,6 +10459,21 @@
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6522,6 +10497,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 288/4 SK. NO: 16 İÇ KAPI NO: 52 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6545,6 +10535,21 @@
           <t>YELKİ MAHALLESİ 2732 SOKAK NO: 68 A GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6568,6 +10573,21 @@
           <t>DONANMACI                 MAHALLESİ 1728 SK. NO: 19 A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6591,6 +10611,21 @@
           <t>KAZIMDİRİK                MAHALLESİ SANAYİ CD. NO:33/603  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6614,6 +10649,21 @@
           <t>RAFETPAŞA                 MAHALLESİ ABDI İPEKÇI CADDESI NO:151/A  ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6637,6 +10687,21 @@
           <t xml:space="preserve"> FAHRETTİN ALTAY MAH. 65/12 SK. NO: 5B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6660,6 +10725,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ 372/29 SK. A. KAYA SİT.  NO: 20  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6683,6 +10763,21 @@
           <t xml:space="preserve"> BARBAROS MAHALLESİ 320 SK.  NO: 9 /1  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6706,6 +10801,21 @@
           <t>OSMAN AKSÜNER MAHALLESİ YEŞİLLİK CD. NO:171  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6729,6 +10839,21 @@
           <t xml:space="preserve"> SEKİZ EYLÜL MAH. 134/1 SK. NO: 55A İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6752,6 +10877,21 @@
           <t xml:space="preserve"> GÖLCÜKLER MAH. 9 EYLÜL CAD.  NO: 32 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6775,6 +10915,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAHALLESİ 2. ÖTEYAKA ( KÜME EVLER )  NO: 27 /2  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6798,6 +10953,21 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO: 13  İÇ KAPI NO: 1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6821,6 +10991,21 @@
           <t xml:space="preserve"> YELKİ KÖYÜ CELAL MEVKİİ 23. PAFTA 1267          NO:/ GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6844,6 +11029,21 @@
           <t>ÇAMTEPE                   MAHALLESİ MİTHATPAŞA CADDESİ NO:217/B  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6867,6 +11067,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ ATATÜRK CAD. NO: 62/2 MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6890,6 +11105,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. 1851 SK. İBRAHİM BEY BLOK  NO: 19A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6913,6 +11143,21 @@
           <t xml:space="preserve"> 4.CAD. NO:19 METAL İŞLERİ KISIK SANAYİ SİTESİ KISIKKÖY MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6936,6 +11181,21 @@
           <t xml:space="preserve"> 854 SOKAK NO:8/B  / İZMİR</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6959,6 +11219,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ 184 SOKAK NO:48/A BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6982,6 +11257,21 @@
           <t xml:space="preserve"> DÜZCE MAH. 4371 SK. NO: 1 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7005,6 +11295,21 @@
           <t>KAZIMDİRİK                MAHALLESİ 296/2 SOKAK NO:33  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7028,6 +11333,21 @@
           <t xml:space="preserve"> EVKA 3 MAHALLESİ 129/4 SK.  NO: 34 B  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7051,6 +11371,21 @@
           <t>GÜVEN                     MAHALLESİ 384/2 SK. YILDIZ BLOK  NO: 3  İÇ KAPI NO: 8 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7074,6 +11409,21 @@
           <t xml:space="preserve"> ALTIEVLER MAH. YILDIRIM KEMAL CAD.  NO: 16 NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7097,6 +11447,21 @@
           <t>ÇINARLI                   MAHALLESİ 1573 SOKAK NO:9/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7120,6 +11485,21 @@
           <t xml:space="preserve"> POLİGON MAHALLESİ 123/7 SOKAK NO:2 KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7143,6 +11523,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESI NO:245/B  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7166,6 +11561,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39  İÇ KAPI NO: 2511 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7189,6 +11599,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. ŞEHİTLER BUL. ONUR NO: 34B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7212,6 +11637,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1561 SK. NO: 54 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7235,6 +11675,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ CAHER DUDAYEV BULVARI NO:40/Z01  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7258,6 +11713,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 2809 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7281,6 +11751,21 @@
           <t>İSMET KAPTAN MAHALLESİ GAZİ BULV.  SUSUZLU İŞ MERKEZİ BLOK  NO: 112   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7304,6 +11789,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 2809 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7327,6 +11827,21 @@
           <t>AKDENİZ                   MAHALLESİ AKDENİZ CAD. AKDENİZ İŞHANI BLOK  NO: 5  İÇ KAPI NO: 515  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7350,6 +11865,21 @@
           <t xml:space="preserve"> 129/8 SOKAK NO:11 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7373,6 +11903,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD.  NO: 3  İÇ KAPI NO: 1B112 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7396,6 +11941,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. CAHİT ATAY SK. NO: 4/1 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7419,6 +11979,21 @@
           <t xml:space="preserve"> MİMAR SİNAN DR.M.ENVER BEY   NO:NO:37/D:2 ALSANCAK KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7442,6 +12017,21 @@
           <t xml:space="preserve"> ANADOLU CAD. NO:41 MEGAPOL TOWER KAT:10 DAİRE:101 BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7465,6 +12055,21 @@
           <t>CÜNEYTBEY MAHALLESİ KUVA-İ MİLLİYE CAD. NO:13/10  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7488,6 +12093,21 @@
           <t xml:space="preserve"> YALI MAH. 6523 SK. NO: 32CB KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7511,6 +12131,21 @@
           <t>EVKA-3                    MAHALLESİ 101 SOKAK NO:22  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7534,6 +12169,21 @@
           <t xml:space="preserve"> PİRİ REİS MAH. 324 SK. NO: 7C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7557,6 +12207,21 @@
           <t xml:space="preserve"> YENİCE MAH. İNCİRLİ KÜME EVLERİ NO: 96H URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7580,6 +12245,21 @@
           <t>CENNETOĞLU MAHALLESİ YEŞİLLİK CAD. SELGEÇEN MODEKO Apt.  NO: 228-230/405 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7603,6 +12283,21 @@
           <t xml:space="preserve"> ALTINTAŞ MAH. ZAFER CAD. NO: 145B URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7626,6 +12321,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B  İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7649,6 +12359,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 12/2 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7672,6 +12397,21 @@
           <t>SAHİLEVLERİ               MAHALLESİ VENÜS SK. NO:26/1  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7695,6 +12435,21 @@
           <t xml:space="preserve">  BADEMLER KÖYÜ URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7718,6 +12473,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/2 SK. KARABIYIKLI İŞMERKEZ BLOK  NO: 13A  İÇ KAPI NO: A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7737,6 +12507,21 @@
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7760,6 +12545,21 @@
           <t>YALI                      MAHALLESİ 6402 SK. NO: 37B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7783,6 +12583,21 @@
           <t xml:space="preserve"> 8028 SK NO:26/A  KUŞÇULAR KÖYÜ URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7806,6 +12621,21 @@
           <t xml:space="preserve"> TORASAN MAHALLESİ ÇEŞME URLA İZMİR ASFALTI CAD.  NO: 330  URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7829,6 +12659,21 @@
           <t>KAZIMDİRİK MAHALLESİ 367/7 SK. NO: 14 /1/109 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7852,6 +12697,21 @@
           <t xml:space="preserve"> HALKAPINAR MAHALLESİ 1202/6 SK.  NO: 3 K  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7875,6 +12735,21 @@
           <t xml:space="preserve"> ÜMİT MAH. 1411/4 SK.  NO: 17B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -7898,6 +12773,21 @@
           <t xml:space="preserve"> YALI MAH. MİTHATPAŞA CAD. NO: 453 İÇ KAPI NO: 1 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7921,6 +12811,21 @@
           <t>ATIFBEY                   MAHALLESİ MALAZGİRT CAD. DEĞIŞENKENT Sit.  NO: 5 /1A GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7944,6 +12849,21 @@
           <t xml:space="preserve"> İNÖNÜ CADDESİ NO:242/1-A  / İZMİR</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7967,6 +12887,21 @@
           <t>YENİCE MAHALLESİ KAMANLI SOK. NO:85  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7990,6 +12925,21 @@
           <t xml:space="preserve"> 3. CAD. NO:19  KISIKKÖY MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -8013,6 +12963,21 @@
           <t>ÇINARLI                   MAHALLESİ 1570 SOKAK NO:22  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8036,6 +13001,21 @@
           <t xml:space="preserve"> MURAT REİS MAH. 231 SK. NO: 32C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8059,6 +13039,21 @@
           <t xml:space="preserve"> KUŞÇULAR MAHALLESİ KUŞÇULAR CAD. 3 NOLU APT.  NO: 10 B  URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8082,6 +13077,21 @@
           <t>BAYRAKLI MAHALLESİ 1918  SOK. NO:14/A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8105,6 +13115,21 @@
           <t xml:space="preserve"> CENGİZ TOPEL CAD. NO:28/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8124,6 +13149,21 @@
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8147,6 +13187,21 @@
           <t>KÜLTÜR MAHALLESİ DR. MUSTAFA ENVER BEY CAD. TAN APT. BLOK  NO: 34C  İÇ KAPI  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8170,6 +13225,21 @@
           <t>UMURBEY                   MAHALLESİ 1507 SOKAK NO: 2 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8193,6 +13263,21 @@
           <t xml:space="preserve"> 6239 SK. NO:1/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8216,6 +13301,21 @@
           <t>CENNETOĞLU MAHALLESİ YEŞİLLİK CAD. SELGEÇEN MODEKO BLOK NO:228-230 İÇKAPI NO:Z22 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8239,6 +13339,21 @@
           <t xml:space="preserve"> OĞLANANASI ATATÜRK MAHALLESİ FEVZİ ÇAKMAK CAD.  NO: 71  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -8258,6 +13373,21 @@
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -8281,6 +13411,21 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ BURAK REİS CAD. NO: 59 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -8304,6 +13449,21 @@
           <t xml:space="preserve"> SARIÇALI KÖYÜ HAMZABABA KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -8327,6 +13487,21 @@
           <t xml:space="preserve"> DENİZLİ MAH. 49 SK. NO: 6 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -8350,6 +13525,21 @@
           <t xml:space="preserve"> YALI MAHALLESİ 6441/1 SK. NO:22  DAİRE:2 KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -8373,6 +13563,21 @@
           <t>ATATÜRK                   MAHALLESİ 63 SK. NO:112B BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -8396,6 +13601,21 @@
           <t xml:space="preserve"> YELKİ MAH. 2730 SK. NO: 139A GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -8417,6 +13637,21 @@
       <c r="E349" t="inlineStr">
         <is>
           <t>ATAŞEHİR MAHALLESİ NO:9/1C CAHER DUDAYEV BUL.CONDOMİNİUM BLOK ÇİĞLİ           / İZMİR</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 5. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 5. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J293"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="41" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="47" customWidth="1" min="7" max="7"/>
     <col width="130" customWidth="1" min="8" max="8"/>
     <col width="102" customWidth="1" min="9" max="9"/>
-    <col width="52" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>ERZENE MAH. 2 SK. NO: 38D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>İNCİRALTI MAHALLESİ İNCİRALTI CAD. NO:26 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>VALİ RAHMİ BEY MAHALLESİ FORBES SK. KARDEŞLER BLOK NO: 154A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1362 SOKAK NO:30/404 BÜYÜK ÇAMLIBEL IS MERKEZI BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>AKDENİZ MAH. CUMHURİYET BUL. BULVAR IS HANI NO: 109 İÇ KAPI NO: 78 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>2. İNÖNÜ MAH. ÖZKARAKAYA CAD. C2 BLOK NO: 11 İÇ KAPI NO: 18 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>ATAŞEHİR MAH. 8220 SK. SEVGİ NO: 9 İÇ KAPI NO: 3 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>ÇINARLI MAHALLESİ 1561 SK. NO: 48 A/A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6167 SK NO:30 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>KÜNER MAHALLESİ ÇEVRE YOLU BLV. NO: 248 /1 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>CÜNEYT BEY MAHALLESİ DOĞAN SK. NO: 57 İÇ KAPI NO: 3 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>SAKARYA MAH. 2001 SK. NO: 119/2D ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>ALTINTAŞ MAHALLESİ ÇEŞME URLA İZMİR ASFALTI CAD. NO:319 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>MENDERES MAHALLESİ 156 SK. NO:19 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>ÇANKAYA MAHALLESİ 150 SK NO: 23A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>ÖRNEKKÖY MAHALLESİ 7434 SK. NO:7 İÇ KAPI NO: 13 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>GÜRPINAR MAH. 7227/2 SK. NO: 1B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>KAZIM DİRİK MAHALLESİ ANKARA CAD. NO:237/2 BAHAR APT. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3509 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>ÇİNİLİKÖY MAHALLESİ ÇİNİLİKÖY YOLU (KÜME EVLER) NO:26/1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>ADALET MAH. 1643/18 SK. NO: 18B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SOK. NO:32/3 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>DEREKÖY MAH. 820/2 SK. NO: 40/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>ATATÜRK MAHALLESİ 7025 SOKAK NO:1 OĞLANANASI MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6171/1 SK. NO: 1 /4/0 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO:39/3803 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>FUAT EDİP BAKSI MAH. CÜNEYT SİVARİOĞULLARI SK. CUMHURİYET NO: 89 İÇ KAPI NO: 12 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>AKIN SİMAV MAHALLESİ MİTHAT PAŞA CAD. NO:353/1 ÖZGÜR BLOK İÇ KAPI NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2603 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>SEKİZ EYLÜL MAHALLESİ 79 SK. NO: 7 İÇ KAPI NO: 6 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>MUSALLA MAHALLESİ 1013 SOK. NO: 6 İÇ KAPI NO: 1 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>ZAFER MAH. 2337 SK. NO: 1/2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>RÜSTEM MAHALLESİ NO:6 PÜREN SK. URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>BADEMLER MAH. 15009 SK. NO: 11 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>MANSUROĞLU MAH. 1593/1 SK. İNŞAAT BLOK NO: 4 İÇ KAPI NO: 77 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>ÇINARLI MAHALLESİ 1565 SOKAK NO:13/0 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>YALI MAH. 6436 SK. NO: 28C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>LEVENT MAHALLESİ 3490 SOKAK NO: 12 İÇ KAPI NO: 3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>ÇINARLI MAHALLESİ 1572 SOKAK NO:21/2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>ÇINARLI MAHALLESİ 1561 SK. NO:44 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>HACI İSA MAH. YENİ OTOPARK SK. KILINÇ IŞ MERKEZI NO: 2 İÇ KAPI NO: 235 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>KAZIMDİRİK MAHALLESİ 197 SOKAK NO:17/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>İNCİRALTI MAH. YILDIZ SK. NO: 138 İÇ KAPI NO: 1 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>ÇELEBİ MAHALLESİ İSTİKBAL CAD. NO:80 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>KIZILAY MAHALLESİ 506 SOKAK NO:19 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>KONAK MAHALLESİ DR. FAİK MUHİTTİN ADAM CAD. NO:18/201 ULUSOY BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>EFELER MAH. FORBES SK. KONYAK NO: 71A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>BİNBAŞI REŞATBEY MAHALLESİ AKÇAY CAD. NO:39/1/Z1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>ADALET MAH. 1586/1 SK. A NO: 1 İÇ KAPI NO: 6 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>TINAZTEPE MAHALLESİ 565 SOKAK NO:7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>BARBAROS MAHALLESİ BURAK REİS CAD. EKİP İŞMERKEZİ BLOK NO: 4C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/1 SOK. NO: 1 İÇ KAPI NO: 102 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>BAHAR MAHALLESİ ESKİİZMİR CAD. NO:96/A AKMAN BLOK İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>ALTIEVLER MAH. BÜLENT ECEVİT SK. NO: 40 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>YALI MAHALLESİ 6433 SK. NO:8 B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>MİMAR SİNAN MAHALLESİ IŞILAY SAYGIN SOK. NO:6/C ER-GÜN BLOK İÇ KAPI NO: 6C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>ÜMİT MAHALLESİ 7406/1 SOKAK NO:9 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>HIDIRLIK MAHALLESİ 11 EYLÜL CAD. BLOK NO: 34 İÇ KAPI NO: 4 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>ÇINARLI MAHALLESİ 1561 SOKAK NO:40 ÇINARLI KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>İSMET İNÖNÜ MAHALLESİ 2170 SOKAK NO:15 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>IRMAK MAHALLESİ HASAN GÜVEN CAD. A BLOK NO: 33B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>ÇINARLI MAHALLESİ 1565 SK. NO: 18/_ KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>ŞİFNE MAH. 6000 SK. NO: 20 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>ÜNİVERSİTE MAH. 4420/1 SK. NO: 4 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. İŞÇİMENLER İŞ MERKEZİ BLOK NO: 146 İÇ KAPI NO: 29 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>BARBAROS MAHALLESİ 396 SK. NO: 2 AB/0 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>BİRGİ MAHALLESİ NO:14 KÖYİÇİ MEVKİİ KÜME EVLERİ URLA URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>ÇINARLI MAH. OZAN ABAY CAD. EGEPERLA BLOK NO: 10 İÇ KAPI NO: 094 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>DEVELİ MAH. ÇEVRE YOLU BUL. NO: 195 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>GAZİ MAHALLESİ MİLLET CAD. NO: 51B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>ÇİNİLİKÖY MAH. ÇİNİLİKÖY YOLU KÜME EVLERİ NO: 26/1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>ATIFBEY MAH. 67 SK. NO: 33 İÇ KAPI NO: 32 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>DİCLE MAH. FEVZİ ÇAKMAK CAD. NO: 166A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>YELKİ MAH. 2487 SK. NO: 14 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>ADALET MAH. HAYDAR ALİYEV CAD. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3406 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. HERİS TOWER NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>İNCİRALTI MAHALLESİ MUHTAR SK. NO:37 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>CUMHURİYET MAHALLESİ AHMET NECDET SEZER BULVARI NO:10/B1 B BLOK DAİRE:1 GÖRECE MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>YELKİ MAHALLESİ İNÖNÜ CAD. NO:81/B GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>ALTINTAŞ MAHALLESİ NO:22 URLA ÇEŞME YOLU ÜZERİ URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>KAZIMDİRİK MAH. 364/6 SK. NO: 2 İÇ KAPI NO: 12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>ÇAMÖNÜ MAHALLESİ CLAROS BULV. NO:321/C MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>SEYHAN MAH. 701 SK. NO: 41A İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>KÜÇÜK ÇİĞLİ MAHALLESİ 8786/11 SK. NO: 10A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>ATATÜRK MAHALLESİ 7037 SOK. NO:49 TAHTALIÇAY MEVKİİ MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>KEMALPAŞA OSB MAH. KUZEY SANAYİ CAD. NO: 34 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>DEDEBAŞI MAHALLESİ ALİ ALP BÖKE CAD. EKREM BLOK NO: 97A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>ALSANCAK MAHALLESİ 1440 SK. NO: 1/4 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>FIRAT MAHALLESİ 272 SK. NO: 69 A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>ADALET MAH. ANADOLU CAD. NO: 41/1 İÇ KAPI NO: 401 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>YENİGÜN MAH. UĞUR MUMCU CAD. NO: 143B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>ATAŞEHİR MAH. 8281 SK. BALCILAR İŞ MERKEZİ SİTESİ NO: 19 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>ADNAN SÜVARİ MAH. POLAT CAD. KARAHAN BLOK NO: 196A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>ADALET MAHALLESİ HAYDAR ALİYEV CADDESİ NO: 34 İÇ KAPI NO: 17 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>KONAK MAHALLESİ MÜCİBUR RAHMAN SOKAK NO:3/711 SALİHAĞA İŞ HANI Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3901 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>ADALET MAHALLESİ HAYDAR ALİYEV CADDESİ NO: 34 İÇ KAPI NO: 17 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>ÇEŞME URLA İZMİR ASFALTI NO:103 YENİCE MAH. URLA URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>MEVLANA MAHALLESİ 1711/9 SK. NO:1 DAİRE:15 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>KUŞÇULAR MAH. 8080 SK. ONURKENT SİTESİ NO: 22 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ KIVANÇ SK. TEXMEX Apt. NO: 4/Z BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>ÇINARLI MAH. 1565 SK. NO: 13 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>MARAŞAL FEVZİ ÇAKMAK MAHALLESİ İSMET İNÖNÜ BLV. NO: 8A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>ZAFER MAHALLESİ 2316 SK. NO:24 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>YENİMAHALLE MAH. 8762 SK. NO: 9A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>RÜSTEM MAHALLESİ AYIŞIĞI SK. NO: 37 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>MERSİNLİ MAHALLESİ 2823/1 SOKAK NO: 4 İÇ KAPI NO: Z12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>ÖRNEKKÖY MAHALLESİ 7453 SK. NO: 15/2 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>SANCAKLI MAHALLESİ AŞAĞI SANCAKLI CAD. NO: 12 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>16 EYLÜL MAHALLESİ 3001 SOK. NO:29/6 PAZARYERİ ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>KÜLTÜR MAHALLESİ KIZILAY CADDESİ EFES APT. Apt. NO: 1 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>ALTIN TEPE MAHALLESİ NO:31 ARMUTLU 2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>ERZENE MAH. 66 SK. ÇETİNOL NO: 17/1 İÇ KAPI NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>OĞLANANASI CUMHURİYET MAH. 7011 SK. NO: 28 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>ERZENE MAH. ANKARA CAD. EGE TEKNO PARK NO: 172/67 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>MANSUROĞLU MAHALLESİ 288/4 SK. NO: 16 İÇ KAPI NO: 52 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>FAHRETTİN PAŞA MAHALLESİ 2234 SOK. NO:20/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>ÇELEBİ MAHALLESİ İSTİKBAL CAD. NO:92 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>AKÇAKÖY MAH. 7202 SK. NO: 22 İÇ KAPI NO: 1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>ÇANKAYA MAH. MİTHATPAŞA CAD. KUTUCULAR BLOK NO: 786 İÇ KAPI NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>İNÖNÜ MAHALLESİ 787 SOKAK NO:18 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 451 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>ALTIEVLER MAHALLESİ YILDIRIM KEMAL CAD. NO:11/A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>TORASAN MAH. ÇEŞME URLA İZMİR ASFALTI CAD. NO: 342 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>İÇMELER MAH. ESKİ URLA-İZMİR YOLU CAD. NO: 4/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>ULAMIŞ MAHALLESİ İZMİR CADDESİ NO:265/1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>HACI İSA MAHALLESİ BÜLENT BARATALI BLV. NO:40/B URLA CUMHURİYET MEYDANI BLOK DAİRE:102 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>ALTINTAŞ MAHALLESİ ÇEŞME YOLU ÜZERİ NO:61 DÜNDARLI MEVKİİ URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>AKDENİZ MAH. FEVZİPAŞA BUL. NO: 35A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>SEKİZ EYLÜL MAHALLESİ KIROVASI KÜME EVLERİ NO: 152 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>ERZENE MAHALLESİ İSTANBUL CAD. NO. 12 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>HALKAPINAR MAH. 1203/11 SK. NO: 5-7 İÇ KAPI NO: 175 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>ADATEPE MAHALLESİ 3/18 SK. S.S.EGETEKS.KOOP SİT. NO: 1 J BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>GAZİ OSMAN PAŞA MAH. 5490/2 SK. NO: 43A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>AKSOY MAH. 1748 SK. NO: 102 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>M.FEVZİ ÇAKMAK MAH. 4111 SK. NO: 2B URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>ALAÇATI MAH. ALAÇATI ATATÜRK BUL. NO: 33A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>MALTEPE MAH. MİTHATPAŞA CAD. NO: 269A İÇ KAPI NO: 5 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>ÇANKAYA MAH. BAHATTİN TATIŞ SK. NO: 28 İÇ KAPI NO: 10 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>RAFET PAŞA MAHALLESİ ABDİ İPEKÇİ CD. NO:151/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>ONUR MAH. LİMON SK. DURU NO: 1 İÇ KAPI NO: 73 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. NO:429/B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>YALI MAH. 6523 SK. NO: 25 İÇ KAPI NO: 4 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>YELKİ MAHALLESİ 2283 SK. NO:6/2 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>ÇANKAYA MAHALLESİ 141 SOKAK NO:83/6 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/6 SK NO: 3 H KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>MANSUROĞLU MAHALLESİ 268/1 SOKAK NO:1/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>IRMAK MAH. 36/3 SK. NO: 20 İÇ KAPI NO: 12 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>GÜNEŞLİ MAHALLESİ YEŞİLLİK CADDESİ NO: 34A YAĞHANELER KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>SIRA MAH. 2.ZİRAAT SK. NO: 28 İÇ KAPI NO: 2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>ÇINARLI MAHALLESİ 1570 SK. NO: 13 C/13C KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>AKSOY MAH. FAZIL BEY CAD. ALDEMİR NO: 87C İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>KOŞUKAVAK MAH. ZİYA PAŞA CAD. NO: 15A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>ALAÇATI MAH. 11500 SK. NO: 24B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>YALI MAH. 6523 SK. NO: 32CB KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>EGEMENLİK MAH. 6106/4 SK. NO: 17B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>NARLI MAH. ŞENCAN SK. HİLAL NO: 9A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>GÜNEŞLİ MAHALLESİ 526 SK. NO:7/9 DAİRE:6 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ NO:41 MEGAPOL TOWER KAT:10 DAİRE:101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>KÖYİÇİ MAH. 8064 SK. KOLÇAK BLOK NO: 18 İÇ KAPI NO: 5 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/1 SOKAK NO: 1 İÇ KAPI NO: 215 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>TORASAN MAH. ÇEŞME URLA İZMİR ASFALTI CAD. NO: 362/2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>ÖRNEKKÖY MAHALLESİ 7401 SK. NO:105/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>NERGİZ MAHALLESİ BERİN TAŞAN SK. DENİZ BLOK NO: 89B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>TERSANE MAH. YALI BUL. HALİDE HANIM BLOK NO: 11A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>BAHARİYE MAHALLESİ ŞEHİT İBRAHİM ER SK. UYGAR BLOK NO: 34A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>EVKA-2 MAHALLESİ 6851 SK. NO:57 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>BAHÇELERARASI MAH. KUMUL SK. NO: 6 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>GÜRPINAR MAHALLESİ 7227/2 SK. NO: 1 C BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>İNKİLAP MAHALLESİ 537 SK. NO: 8-10 İÇ KAPI NO: 6 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>DEDEBAŞI MAH. 6011/3 SK. NO: 11 İÇ KAPI NO: 9 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9322,11 +8401,6 @@
           <t>ATATÜRK MAHALLESİ ÇEŞME URLA İZMİR ASFALTI NO:150</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9370,11 +8444,6 @@
           <t>NAİPLİ MAH. İLKE SK. NO: 1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9418,11 +8487,6 @@
           <t>GÖLCÜKLER MAH. 798 SK. NO: 40 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9466,11 +8530,6 @@
           <t>ÇINARLI MAH. OZAN ABAY CAD. EGEPERLA NO: 10 İÇ KAPI NO: 094 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9514,11 +8573,6 @@
           <t>FAHRETTİN ALTAY MAH. MİTHATPAŞA CAD. ECE NO: 1175D KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9562,11 +8616,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9610,11 +8659,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9658,11 +8702,6 @@
           <t>OĞLANANASI ATATÜRK MAH. MENDERES CAD. NO: 80 İÇ KAPI NO: 1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9706,11 +8745,6 @@
           <t>DONANMACI MAH. 1728 SK. NO: 20A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9754,11 +8788,6 @@
           <t>DONANMACI MAH. 1728 SK. AYHAN MURAT BLOK NO: 17A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9802,11 +8831,6 @@
           <t>DONANMACI MAH. 1728 SK. CÜNEYT BLOK NO: 15A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9850,11 +8874,6 @@
           <t>ÇINARLI MAHALLESİ 1583/1 SOKAK ROD-KAR Apt. NO: 2/209 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9898,11 +8917,6 @@
           <t>ÇINARLI MAH. 1567 SK. NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9946,11 +8960,6 @@
           <t>ÇANKAYA MAHALLESİ 133 SOKAK NO:12 KÜÇÜKYALI KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9994,11 +9003,6 @@
           <t>GÖLCÜKLER MAHALLESİ 798 SK NO:20 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10042,11 +9046,6 @@
           <t>ADALET MAHALLESİ 1643/18 SOKAK NO: 18B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10090,11 +9089,6 @@
           <t>TURABİYE MAHALLESİ GAZİ CAD. NO: 31 İÇ KAPI NO: 2 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10138,11 +9132,6 @@
           <t>SAHİLEVLERİ MAHALLESİ MUSTAFA KEMAL SAHİL BLV. NO: 360/_ NARLIDERE/İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10186,11 +9175,6 @@
           <t>MUSALLA MAHALLESİ 1053 SOK. NO:8 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10234,11 +9218,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 12/2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10282,11 +9261,6 @@
           <t>OĞLANANASI CUMHURİYET MAHALLESİ 7006 SOKAK NO: 18 İÇ KAPI NO: 1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10330,11 +9304,6 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 5 CAD. USLU MAKINA BLOK NO: 7 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10378,11 +9347,6 @@
           <t>MERİÇ MAHALLESİ 5746/5 SK. NO: 7 İÇ KAPI NO: Z01 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10426,11 +9390,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SK. NO: 4 K/_ KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10474,11 +9433,6 @@
           <t>ÇATALKAYA MAH. ARAS SK. MERİH NO: 12A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10522,11 +9476,6 @@
           <t>ATAŞEHİR MAH. 8010 SK. NO: 20C ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10570,11 +9519,6 @@
           <t>KÜLTÜR MAH. ZUHAL YORGANCIOĞLU SK. ÇİÇEK NO: 8B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10618,11 +9562,6 @@
           <t>BARBAROS MAHALLESİ ÇEVRE YOLU BUL. NO:123 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10666,11 +9605,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 21/2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10714,11 +9648,6 @@
           <t>VALİ RAHMİ BEY MAHALLESİ MENDERES CAD. NO:139/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10762,11 +9691,6 @@
           <t>EGEMENLİK MAH. 6106/18 SK. NO: 12A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10810,11 +9734,6 @@
           <t>FAHRETTİN PAŞA MAHALLESİ 2203 SOKAK ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10858,11 +9777,6 @@
           <t>GÖZTEPE MAH. MİTHATPAŞA CAD. İKBAL NO: 879 İÇ KAPI NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10906,11 +9820,6 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAH. SANAYİ CAD. NO: 100 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10954,11 +9863,6 @@
           <t>NARLI MAHALLESİ BEKAROĞLU SK. PALMİYE BLOK NO: 2 İÇ KAPI NO: 3 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11002,11 +9906,6 @@
           <t>BEYAZEVLER MAH. 546 SK. NO: 41/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11050,11 +9949,6 @@
           <t>ATAKENT MAH. CAHER DUDAYEV BUL. NO: 151B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11098,11 +9992,6 @@
           <t>İMBATLI MAHALLESİ GİRNE BLV. MUSTAFA KASMAN BLOK NO: 219A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11146,11 +10035,6 @@
           <t>YENİKENT MAHALLESİ SAMANYOLU SK. NO: 6 İÇ KAPI NO: 31 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11194,11 +10078,6 @@
           <t>KAHRAMANDERE MAHALLESİ 821/1 SK. NO: 9 İÇ KAPI NO: 1 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11242,11 +10121,6 @@
           <t>OĞLANANASI ATATÜRK MAH. 7076 SK. TUFAN GELMEZ NO: 26/3 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11290,11 +10164,6 @@
           <t>9165/4 SK. NO:22 DOĞANAY MAH. BORSAÇ BLOK KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11338,11 +10207,6 @@
           <t>MANSUROĞLU MAH. 288/4 SK. NO: 16 İÇ KAPI NO: 52 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11386,11 +10250,6 @@
           <t>YELKİ MAHALLESİ 2732 SOKAK NO: 68 A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11434,11 +10293,6 @@
           <t>DONANMACI MAHALLESİ 1728 SK. NO: 19 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11482,11 +10336,6 @@
           <t>KAZIMDİRİK MAHALLESİ SANAYİ CD. NO:33/603 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11530,11 +10379,6 @@
           <t>RAFETPAŞA MAHALLESİ ABDI İPEKÇI CADDESI NO:151/A ÇAMDİBİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11578,11 +10422,6 @@
           <t>FAHRETTİN ALTAY MAH. 65/12 SK. NO: 5B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11626,11 +10465,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372/29 SK. A. KAYA SİT. NO: 20 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11674,11 +10508,6 @@
           <t>BARBAROS MAHALLESİ 320 SK. NO: 9 /1 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11722,11 +10551,6 @@
           <t>OSMAN AKSÜNER MAHALLESİ YEŞİLLİK CD. NO:171 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11770,11 +10594,6 @@
           <t>SEKİZ EYLÜL MAH. 134/1 SK. NO: 55A İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11818,11 +10637,6 @@
           <t>GÖLCÜKLER MAH. 9 EYLÜL CAD. NO: 32 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11866,11 +10680,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ 2. ÖTEYAKA ( KÜME EVLER ) NO: 27 /2 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11914,11 +10723,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO: 13 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11962,11 +10766,6 @@
           <t>ÇAMTEPE MAHALLESİ MİTHATPAŞA CADDESİ NO:217/B NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12010,11 +10809,6 @@
           <t>KEMALPAŞA MAHALLESİ ATATÜRK CAD. NO: 62/2 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12058,11 +10852,6 @@
           <t>BAHÇELİEVLER MAH. 1851 SK. İBRAHİM BEY BLOK NO: 19A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12106,11 +10895,6 @@
           <t>KAZIMDİRİK MAHALLESİ 184 SOKAK NO:48/A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12154,11 +10938,6 @@
           <t>DÜZCE MAH. 4371 SK. NO: 1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12202,11 +10981,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/2 SOKAK NO:33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12250,11 +11024,6 @@
           <t>EVKA 3 MAHALLESİ 129/4 SK. NO: 34 B BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12298,11 +11067,6 @@
           <t>GÜVEN MAHALLESİ 384/2 SK. YILDIZ BLOK NO: 3 İÇ KAPI NO: 8 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12346,11 +11110,6 @@
           <t>ALTIEVLER MAH. YILDIRIM KEMAL CAD. NO: 16 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12394,11 +11153,6 @@
           <t>ÇINARLI MAHALLESİ 1573 SOKAK NO:9/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12442,11 +11196,6 @@
           <t>POLİGON MAHALLESİ 123/7 SOKAK NO:2 KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12490,11 +11239,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12538,11 +11282,6 @@
           <t>BOSTANLI MAH. ŞEHİTLER BUL. ONUR NO: 34B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12586,11 +11325,6 @@
           <t>ÇINARLI MAH. 1561 SK. NO: 54 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12634,11 +11368,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40/Z01 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12682,11 +11411,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12730,11 +11454,6 @@
           <t>İSMET KAPTAN MAHALLESİ GAZİ BULV. SUSUZLU İŞ MERKEZİ BLOK NO: 112 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12778,11 +11497,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12826,11 +11540,6 @@
           <t>AKDENİZ MAHALLESİ AKDENİZ CAD. AKDENİZ İŞHANI BLOK NO: 5 İÇ KAPI NO: 515 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12874,11 +11583,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B112 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12922,11 +11626,6 @@
           <t>BAHÇELİEVLER MAH. CAHİT ATAY SK. NO: 4/1 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12970,11 +11669,6 @@
           <t>CÜNEYTBEY MAHALLESİ KUVA-İ MİLLİYE CAD. NO:13/10 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13018,11 +11712,6 @@
           <t>YALI MAH. 6523 SK. NO: 32CB KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13066,11 +11755,6 @@
           <t>EVKA-3 MAHALLESİ 101 SOKAK NO:22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13114,11 +11798,6 @@
           <t>PİRİ REİS MAH. 324 SK. NO: 7C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13162,11 +11841,6 @@
           <t>YENİCE MAH. İNCİRLİ KÜME EVLERİ NO: 96H URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13210,11 +11884,6 @@
           <t>CENNETOĞLU MAHALLESİ YEŞİLLİK CAD. SELGEÇEN MODEKO Apt. NO: 228-230/405 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13258,11 +11927,6 @@
           <t>ALTINTAŞ MAH. ZAFER CAD. NO: 145B URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13306,11 +11970,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13354,11 +12013,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 12/2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13402,11 +12056,6 @@
           <t>SAHİLEVLERİ MAHALLESİ VENÜS SK. NO:26/1 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13450,11 +12099,6 @@
           <t>HALKAPINAR MAH. 1203/2 SK. KARABIYIKLI İŞMERKEZ BLOK NO: 13A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13498,11 +12142,6 @@
           <t>YALI MAHALLESİ 6402 SK. NO: 37B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13546,11 +12185,6 @@
           <t>TORASAN MAHALLESİ ÇEŞME URLA İZMİR ASFALTI CAD. NO: 330 URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13594,11 +12228,6 @@
           <t>KAZIMDİRİK MAHALLESİ 367/7 SK. NO: 14 /1/109 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13642,11 +12271,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/6 SK. NO: 3 K KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13690,11 +12314,6 @@
           <t>ÜMİT MAH. 1411/4 SK. NO: 17B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13738,11 +12357,6 @@
           <t>YALI MAH. MİTHATPAŞA CAD. NO: 453 İÇ KAPI NO: 1 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13786,11 +12400,6 @@
           <t>ATIFBEY MAHALLESİ MALAZGİRT CAD. DEĞIŞENKENT Sit. NO: 5 /1A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -13834,11 +12443,6 @@
           <t>YENİCE MAHALLESİ KAMANLI SOK. NO:85 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -13882,11 +12486,6 @@
           <t>ÇINARLI MAHALLESİ 1570 SOKAK NO:22 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -13930,11 +12529,6 @@
           <t>MURAT REİS MAH. 231 SK. NO: 32C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -13978,11 +12572,6 @@
           <t>KUŞÇULAR MAHALLESİ KUŞÇULAR CAD. 3 NOLU APT. NO: 10 B URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14026,11 +12615,6 @@
           <t>BAYRAKLI MAHALLESİ 1918 SOK. NO:14/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14074,11 +12658,6 @@
           <t>KÜLTÜR MAHALLESİ DR. MUSTAFA ENVER BEY CAD. TAN APT. BLOK NO: 34C İÇ KAPI KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14122,11 +12701,6 @@
           <t>UMURBEY MAHALLESİ 1507 SOKAK NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14170,11 +12744,6 @@
           <t>CENNETOĞLU MAHALLESİ YEŞİLLİK CAD. SELGEÇEN MODEKO BLOK NO:228-230 İÇKAPI NO:Z22 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14218,11 +12787,6 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ FEVZİ ÇAKMAK CAD. NO: 71 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14266,11 +12830,6 @@
           <t>YILDIRIM BEYAZIT MAHALLESİ BURAK REİS CAD. NO: 59 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14314,11 +12873,6 @@
           <t>DENİZLİ MAH. 49 SK. NO: 6 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14362,11 +12916,6 @@
           <t>YALI MAHALLESİ 6441/1 SK. NO:22 DAİRE:2 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14410,11 +12959,6 @@
           <t>ATATÜRK MAHALLESİ 63 SK. NO:112B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -14458,11 +13002,6 @@
           <t>YELKİ MAH. 2730 SK. NO: 139A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -14504,11 +13043,6 @@
       <c r="I293" s="2" t="inlineStr">
         <is>
           <t>ATAŞEHİR MAHALLESİ NO:9/1C CAHER DUDAYEV BUL.CONDOMİNİUM BLOK ÇİĞLİ / İZMİR</t>
-        </is>
-      </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>05 - SÜS BİTKİLERİ, PEYZAJ VE EV HAYVANLARI GRUBU</t>
         </is>
       </c>
     </row>
